--- a/adwords_python3/online_marketing/final/LIST_ACCOUNT/Dept.xlsx
+++ b/adwords_python3/online_marketing/final/LIST_ACCOUNT/Dept.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>MCC Level 3</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Unidentified</t>
+  </si>
+  <si>
+    <t>VNG</t>
+  </si>
+  <si>
+    <t>VNG Sing</t>
+  </si>
+  <si>
+    <t>Entity</t>
   </si>
 </sst>
 </file>
@@ -557,19 +566,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +587,11 @@
       <c r="C1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -590,8 +601,11 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -601,8 +615,11 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -612,8 +629,11 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -623,8 +643,11 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -634,8 +657,11 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -645,8 +671,11 @@
       <c r="C7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -656,8 +685,11 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -667,8 +699,11 @@
       <c r="C9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -678,8 +713,11 @@
       <c r="C10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -689,8 +727,11 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -700,8 +741,11 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -711,8 +755,11 @@
       <c r="C13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -722,8 +769,11 @@
       <c r="C14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -733,8 +783,11 @@
       <c r="C15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -744,8 +797,11 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -755,8 +811,11 @@
       <c r="C17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -766,8 +825,11 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -777,8 +839,11 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>35</v>
       </c>
@@ -787,6 +852,9 @@
       </c>
       <c r="C20" t="s">
         <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
